--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Library-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder\Library-main\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF164B0-DDD7-420F-BFEA-81DBD21B1A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="4605" yWindow="0" windowWidth="19395" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>№</t>
   </si>
@@ -66,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +96,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -109,26 +136,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -435,109 +465,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G11" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <f>DATE(2021,10,23)</f>
         <v>44492</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <f>DATE(2021,10,23)</f>
         <v>44492</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <f>DATE(2023,10,29)</f>
         <v>45228</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <f>DATE(2021,10,23)</f>
+        <v>44492</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <f>DATE(2021,10,23)</f>
+        <v>44492</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <f>DATE(2023,10,29)</f>
+        <v>45228</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder\Library-main\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\lib\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF164B0-DDD7-420F-BFEA-81DBD21B1A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D3D19-6FB0-472D-83A7-A5AC7D71F574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4605" yWindow="0" windowWidth="19395" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,11 +132,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -144,26 +159,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +488,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:G11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,177 +501,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <f>DATE(2021,10,23)</f>
         <v>44492</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <f>DATE(2021,10,23)</f>
         <v>44492</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <f>DATE(2023,10,29)</f>
         <v>45228</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <f>DATE(2021,10,23)</f>
         <v>44492</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <f>DATE(2021,10,23)</f>
         <v>44492</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <f>DATE(2023,10,29)</f>
         <v>45228</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
